--- a/ResultsTables.xlsx
+++ b/ResultsTables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="728" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="728"/>
   </bookViews>
   <sheets>
     <sheet name="STOCK" sheetId="1" r:id="rId1"/>
@@ -214,11 +214,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -277,7 +277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -564,11 +563,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="416629504"/>
-        <c:axId val="416628720"/>
+        <c:axId val="348261144"/>
+        <c:axId val="348261928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="416629504"/>
+        <c:axId val="348261144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416628720"/>
+        <c:crossAx val="348261928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -619,7 +618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416628720"/>
+        <c:axId val="348261928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -666,7 +665,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -727,7 +725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416629504"/>
+        <c:crossAx val="348261144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -741,7 +739,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -848,7 +845,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -961,11 +957,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="416634992"/>
-        <c:axId val="416633032"/>
+        <c:axId val="348263104"/>
+        <c:axId val="348263496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="416634992"/>
+        <c:axId val="348263104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416633032"/>
+        <c:crossAx val="348263496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416633032"/>
+        <c:axId val="348263496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.92"/>
@@ -1065,7 +1061,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1126,7 +1121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416634992"/>
+        <c:crossAx val="348263104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1215,7 +1210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1502,11 +1496,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="416623624"/>
-        <c:axId val="416624016"/>
+        <c:axId val="348264672"/>
+        <c:axId val="304658968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="416623624"/>
+        <c:axId val="348264672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416624016"/>
+        <c:crossAx val="304658968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1557,7 +1551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416624016"/>
+        <c:axId val="304658968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1597,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1664,7 +1657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416623624"/>
+        <c:crossAx val="348264672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1671,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1893,11 +1885,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="363383240"/>
-        <c:axId val="363381672"/>
+        <c:axId val="350550768"/>
+        <c:axId val="350553904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363383240"/>
+        <c:axId val="350550768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363381672"/>
+        <c:crossAx val="350553904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363381672"/>
+        <c:axId val="350553904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.92"/>
@@ -2062,7 +2054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363383240"/>
+        <c:crossAx val="350550768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4315,7 +4307,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4695,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4710,11 +4702,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4722,21 +4714,21 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4897,11 +4889,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="G12" t="str">
         <f>G4</f>
         <v>STOCK</v>
@@ -4993,22 +4985,22 @@
       <c r="G18" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="G19" t="str">
         <f>G4</f>
         <v>STOCK</v>
@@ -5045,11 +5037,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="G21" t="str">
         <f>G6</f>
         <v>Test Kernel 2</v>
@@ -5162,11 +5154,11 @@
       <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -5191,18 +5183,18 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -5283,11 +5275,11 @@
       <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -5312,18 +5304,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -5404,11 +5396,11 @@
       <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -5434,6 +5426,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A30:C30"/>
@@ -5441,11 +5438,6 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
